--- a/20_営業/03_個別開発/MD050/MD050_COK_024_A06_販売控除データGL連携_補足資料.xlsx
+++ b/20_営業/03_個別開発/MD050/MD050_COK_024_A06_販売控除データGL連携_補足資料.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_16001～16100\E_本稼動_16026【全体】収益認識\40_リリース\20210518_本番リリース(48)（仕訳インポート）\チェックイン\03018\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="18990" windowHeight="11880" tabRatio="806"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="18996" windowHeight="11880" tabRatio="806"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
   <si>
     <t>項目名(物理)</t>
   </si>
@@ -552,12 +557,31 @@
     <t>リファレンス5（仕訳摘要）</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>GROUP_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕訳ソースのATTRIBUTE1より取得
+「9000000010」</t>
+    <rPh sb="0" eb="2">
+      <t>シワケ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,10 +606,24 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF00FF"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF66FF"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF66FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -643,7 +681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,8 +715,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,6 +738,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66FF"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
@@ -695,12 +746,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -742,7 +796,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -777,7 +831,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -986,19 +1040,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="44.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
-    <col min="4" max="6" width="40.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" customWidth="1"/>
+    <col min="4" max="6" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>76</v>
       </c>
@@ -1012,7 +1068,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1072,7 +1128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -1092,7 +1148,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1112,7 +1168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1132,7 +1188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1152,7 +1208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1172,7 +1228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1192,7 +1248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1212,7 +1268,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="32.4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1232,7 +1288,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="32.4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1252,7 +1308,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>66</v>
       </c>
@@ -1272,7 +1328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="32.4" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>67</v>
       </c>
@@ -1292,7 +1348,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>68</v>
       </c>
@@ -1312,7 +1368,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>69</v>
       </c>
@@ -1332,7 +1388,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="192" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>70</v>
       </c>
@@ -1342,177 +1398,177 @@
       <c r="C18" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>37</v>
       </c>
@@ -1532,93 +1588,113 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:6" s="15" customFormat="1" ht="21.6" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>97</v>
       </c>
     </row>

--- a/20_営業/03_個別開発/MD050/MD050_COK_024_A06_販売控除データGL連携_補足資料.xlsx
+++ b/20_営業/03_個別開発/MD050/MD050_COK_024_A06_販売控除データGL連携_補足資料.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_16001～16100\E_本稼動_16026【全体】収益認識\40_リリース\20210518_本番リリース(48)（仕訳インポート）\チェックイン\03018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19401～19500\E_本稼動_19496【グループ会社】グループ会社統合対応\20_成果物\XXCOK024A06C 販売控除データGL連携\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="18996" windowHeight="11880" tabRatio="806"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="18990" windowHeight="11880" tabRatio="842"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
   <si>
     <t>項目名(物理)</t>
   </si>
@@ -33,9 +33,6 @@
     <t>ステータス</t>
   </si>
   <si>
-    <t>"NEW"</t>
-  </si>
-  <si>
     <t>SET_OF_BOOKS_ID</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>通貨コード</t>
   </si>
   <si>
-    <t>"JPY"</t>
-  </si>
-  <si>
     <t>DATE_CREATED</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>残高タイプ</t>
   </si>
   <si>
-    <t>‘A’</t>
-  </si>
-  <si>
     <t>USER_JE_CATEGORY_NAME</t>
   </si>
   <si>
@@ -172,14 +163,6 @@
   </si>
   <si>
     <t>コンテキスト</t>
-  </si>
-  <si>
-    <t>仕訳カテゴリ＋’_’＋　会計期間</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕訳カテゴリ＋’_’＋　会計期間</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>リファレンス10 （仕訳明細摘要）</t>
@@ -275,10 +258,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仕訳カテゴリ＋’_’＋　会計期間</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>売上控除</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -292,20 +271,6 @@
   </si>
   <si>
     <t>負債（引当等）_消費税</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>001（固定）</t>
-    <rPh sb="4" eb="6">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1011（固定）</t>
-    <rPh sb="5" eb="7">
-      <t>コテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -326,33 +291,6 @@
     <t>0（固定）</t>
     <rPh sb="2" eb="4">
       <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>定額控除：振替元拠点
-定額控除以外：前月売上拠点
-※アップロードレコードの場合は、振替元拠点を設定</t>
-    <rPh sb="0" eb="2">
-      <t>テイガク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウジョ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>テイガク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウジョ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -519,18 +457,6 @@
     <rPh sb="96" eb="98">
       <t>キギョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"消費税行"＋"_"＋消費税コード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"負債税行"＋"_"＋消費税コード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕訳カテゴリ＋’_’＋　会計期間</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -576,12 +502,197 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>仕訳カテゴリ＋'_'＋会計期間＋'_'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>＋伝票作成会社</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕訳カテゴリ＋'_'＋会計期間</t>
+  </si>
+  <si>
+    <t>'消費税行'＋'_'＋消費税コード</t>
+  </si>
+  <si>
+    <t>'負債税行'＋'_'＋消費税コード</t>
+  </si>
+  <si>
+    <t>'A'</t>
+  </si>
+  <si>
+    <t>'NEW'</t>
+  </si>
+  <si>
+    <t>'JPY'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1011（固定）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+伝票作成会社より、参照表：XXCFO1_DRAFTING_COMPANY(各社部門情報)
+からATTRIBUTE1(部門コード_財務経理部)を取得して設定</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デンピョウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>サクセイガイシャ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>サンショウヒョウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>001（固定）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+控除データの振替先顧客の前月売上拠点(または控除データの振替元拠点)から取得した伝票作成会社</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>001（固定）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+控除データの振替先顧客の前月売上拠点(または控除データの振替元拠点)から取得した伝票作成会社</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>定額控除：振替元拠点
+定額控除以外：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>振替先顧客の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>前月売上拠点
+※アップロードレコードの場合は、振替元拠点を設定</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>テイガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイガク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,13 +722,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF66FF"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF66FF"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -625,8 +729,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,12 +762,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,35 +801,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,14 +829,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,6 +861,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF008000"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
@@ -1042,38 +1167,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="44.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="44.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" customWidth="1"/>
-    <col min="4" max="6" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="44.625" customWidth="1"/>
+    <col min="4" max="6" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>56</v>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1088,614 +1214,614 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="C15" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="192" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E26" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="F26" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="B28" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="C28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D33" s="13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="75.599999999999994" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="15" customFormat="1" ht="21.6" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>97</v>
+      <c r="E33" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1703,7 +1829,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A12:F17 A19:F19 A18:B18 D18:F18" numberStoredAsText="1"/>
+    <ignoredError sqref="A12:F13 A19:F19 A18:B18 E18:F18 A16:F17 A14:B14 A15:B15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>